--- a/Smets_Warne_Wouters_Mod_Philips_Curve/Model_Inputs.xlsx
+++ b/Smets_Warne_Wouters_Mod_Philips_Curve/Model_Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DSGE_Routledge\Smets_Warne_Wouters_2014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DSGE_Routledge\Smets_Warne_Wouters_Mod_Philips_Curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DBFD3E-DEE5-41FA-9419-66C5FC1446BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53CC24-5EF5-4C0D-A658-12E92854604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66EF218B-DC11-4D6A-BEE5-8BD9D8BBF969}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{66EF218B-DC11-4D6A-BEE5-8BD9D8BBF969}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametry" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>c_rho_b</t>
   </si>
@@ -364,6 +364,42 @@
   </si>
   <si>
     <t>${\frac{\bar{g}}{y}}$</t>
+  </si>
+  <si>
+    <t>c_rho_p_energy</t>
+  </si>
+  <si>
+    <t>c_rho_p_food</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${\rho_p^{energy}}$ </t>
+  </si>
+  <si>
+    <t>Persistence of price energy shock</t>
+  </si>
+  <si>
+    <t>Persistence of price food shock</t>
+  </si>
+  <si>
+    <t>${\rho_p^{food}}$</t>
+  </si>
+  <si>
+    <t>c_w_energy</t>
+  </si>
+  <si>
+    <t>c_w_food</t>
+  </si>
+  <si>
+    <t>${w_{food}}$</t>
+  </si>
+  <si>
+    <t>Steady state weight - food in CPI basket</t>
+  </si>
+  <si>
+    <t>Steady state weight - energy in CPI basket</t>
+  </si>
+  <si>
+    <t>${w_{energy}}$</t>
   </si>
 </sst>
 </file>
@@ -783,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE39027-846B-4168-A1BF-4076619A79DB}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1205,6 +1241,34 @@
       </c>
       <c r="G25" s="9"/>
     </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.21</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
     <sortCondition ref="A2:A25"/>
@@ -1215,16 +1279,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9A0115-0DA3-4329-A43A-DAA03AB5F30D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -1407,6 +1471,34 @@
         <v>0.90539000000000003</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.62406399999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.62406399999999995</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition ref="A2:A12"/>
